--- a/3.Pandas/data.xlsx
+++ b/3.Pandas/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/3.Pandas/data.xlsx
+++ b/3.Pandas/data.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,17 +436,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Name</t>
+          <t>First Name</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Last Name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Age</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>School</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Grade (Intermediate)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>State</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>College</t>
         </is>
       </c>
     </row>
@@ -456,42 +476,242 @@
           <t>Arin</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Sharma</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>21</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>St. Vishna RRN School</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>65%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>Uttar Pradesh</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Mangalayatan University</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Rishita</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>21</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Gujarat</t>
+          <t>Advik</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Verma</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Kendriya Vidyalaya</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>69%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>National Law University, Delhi</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Advik</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+          <t>Vishal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Verma</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>20</v>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Kendriya Vidyalaya</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Uttarakhand</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>National Defence Academy</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Vikas</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Singh</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Kendriya Vidyalaya</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bihar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>AIIMS (Delhi)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Radhika</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Singh</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Kendriya Vidyalaya</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sikkim</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Amity University</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Vaishnavi</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Singh</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>20</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Kendriya Vidyalaya</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>NIT Kurukshetra</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Rishita</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bhatt</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>21</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Kendriya Vidyalaya</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>IIT Roorkee</t>
         </is>
       </c>
     </row>

--- a/3.Pandas/data.xlsx
+++ b/3.Pandas/data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>College</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Profession</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -504,6 +509,11 @@
           <t>Mangalayatan University</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Data Scientist</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,6 +549,11 @@
           <t>National Law University, Delhi</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Advocate</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -574,6 +589,11 @@
           <t>National Defence Academy</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Army</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -609,6 +629,11 @@
           <t>AIIMS (Delhi)</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Doctor</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -644,6 +669,11 @@
           <t>Amity University</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Software Engineer</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -679,6 +709,11 @@
           <t>NIT Kurukshetra</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>IAS</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -712,6 +747,11 @@
       <c r="G8" t="inlineStr">
         <is>
           <t>IIT Roorkee</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AI Engineer</t>
         </is>
       </c>
     </row>
